--- a/1_excel_Source/Medical_Stock.xlsx
+++ b/1_excel_Source/Medical_Stock.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faisa\OneDrive\Documents\Hospital_CAI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{143A86D4-53CD-46A7-AD0D-CFA538DA14C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90F7F0BD-DE89-4433-B1CF-7611AB4BAB1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,35 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -347,9 +320,6 @@
     <t>BT90123</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>MED010</t>
   </si>
   <si>
@@ -365,9 +335,6 @@
     <t>BT01234</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>MED011</t>
   </si>
   <si>
@@ -381,9 +348,6 @@
   </si>
   <si>
     <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>90</t>
   </si>
   <si>
     <t>MED012</t>
@@ -437,8 +401,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -581,7 +545,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -795,587 +759,587 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0634226B-9DC8-458C-AF1B-610DAAC1D7F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="9" max="9" width="22.7265625" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" customWidth="1"/>
+    <col min="10" max="11" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="J2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="K2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
         <v>66</v>
       </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1</v>
+      <c r="K16">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
